--- a/mmo_excel/xlsx/item.xlsx
+++ b/mmo_excel/xlsx/item.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24430"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\projects\mmo_demo\mmo_excel\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{117F8330-1D1C-4514-AC93-1A2AD088AF64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{900B5B85-2129-44BB-98F1-4A90CF8FA240}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-75" yWindow="1980" windowWidth="21600" windowHeight="13125" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="59">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -247,11 +247,19 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>魔法芒果</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>当你精神不振时，请服用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>num</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>魔法药水</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -580,10 +588,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D27"/>
+  <dimension ref="A1:E27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J20" sqref="J20"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -592,7 +600,7 @@
     <col min="3" max="3" width="41.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -605,8 +613,11 @@
       <c r="D1" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -619,8 +630,11 @@
       <c r="D2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -633,8 +647,11 @@
       <c r="D3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>10</v>
       </c>
@@ -647,8 +664,11 @@
       <c r="D4" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>1001</v>
       </c>
@@ -661,8 +681,11 @@
       <c r="D5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>1101</v>
       </c>
@@ -675,8 +698,11 @@
       <c r="D6">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>1102</v>
       </c>
@@ -689,8 +715,11 @@
       <c r="D7">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E7">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>1103</v>
       </c>
@@ -703,8 +732,11 @@
       <c r="D8">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E8">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>1104</v>
       </c>
@@ -717,8 +749,11 @@
       <c r="D9">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E9">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>1105</v>
       </c>
@@ -731,8 +766,11 @@
       <c r="D10">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E10">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>1106</v>
       </c>
@@ -745,8 +783,11 @@
       <c r="D11">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E11">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>1107</v>
       </c>
@@ -759,8 +800,11 @@
       <c r="D12">
         <v>1</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E12">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>1201</v>
       </c>
@@ -773,8 +817,11 @@
       <c r="D13">
         <v>2</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E13">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>1202</v>
       </c>
@@ -787,8 +834,11 @@
       <c r="D14">
         <v>2</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E14">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>1203</v>
       </c>
@@ -801,8 +851,11 @@
       <c r="D15">
         <v>2</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E15">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>1204</v>
       </c>
@@ -815,8 +868,11 @@
       <c r="D16">
         <v>2</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E16">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>1301</v>
       </c>
@@ -829,8 +885,11 @@
       <c r="D17">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E17">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>1302</v>
       </c>
@@ -843,8 +902,11 @@
       <c r="D18">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E18">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>1303</v>
       </c>
@@ -857,8 +919,11 @@
       <c r="D19">
         <v>3</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E19">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>1401</v>
       </c>
@@ -871,8 +936,11 @@
       <c r="D20">
         <v>4</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E20">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>1402</v>
       </c>
@@ -885,8 +953,11 @@
       <c r="D21">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E21">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>1403</v>
       </c>
@@ -899,8 +970,11 @@
       <c r="D22">
         <v>4</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E22">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>1501</v>
       </c>
@@ -913,8 +987,11 @@
       <c r="D23">
         <v>5</v>
       </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E23">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>1502</v>
       </c>
@@ -927,8 +1004,11 @@
       <c r="D24">
         <v>5</v>
       </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E24">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>1503</v>
       </c>
@@ -941,8 +1021,11 @@
       <c r="D25">
         <v>5</v>
       </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E25">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>1601</v>
       </c>
@@ -955,19 +1038,25 @@
       <c r="D26">
         <v>6</v>
       </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E26">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>1701</v>
       </c>
       <c r="B27" t="s">
+        <v>58</v>
+      </c>
+      <c r="C27" t="s">
         <v>55</v>
-      </c>
-      <c r="C27" t="s">
-        <v>56</v>
       </c>
       <c r="D27">
         <v>7</v>
+      </c>
+      <c r="E27">
+        <v>60</v>
       </c>
     </row>
   </sheetData>

--- a/mmo_excel/xlsx/item.xlsx
+++ b/mmo_excel/xlsx/item.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\projects\mmo_demo\mmo_excel\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{900B5B85-2129-44BB-98F1-4A90CF8FA240}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F62226F-DE93-4164-A153-AABF9A54B905}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-75" yWindow="1980" windowWidth="21600" windowHeight="13125" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="61">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -260,6 +260,14 @@
   </si>
   <si>
     <t>魔法药水</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>药树</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>散发着神秘力量的树木，能够治愈伤口</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -588,10 +596,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E27"/>
+  <dimension ref="A1:E28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="H24" sqref="H24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1044,18 +1052,35 @@
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27">
+        <v>1602</v>
+      </c>
+      <c r="B27" t="s">
+        <v>59</v>
+      </c>
+      <c r="C27" t="s">
+        <v>60</v>
+      </c>
+      <c r="D27">
+        <v>6</v>
+      </c>
+      <c r="E27">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A28">
         <v>1701</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B28" t="s">
         <v>58</v>
       </c>
-      <c r="C27" t="s">
+      <c r="C28" t="s">
         <v>55</v>
       </c>
-      <c r="D27">
+      <c r="D28">
         <v>7</v>
       </c>
-      <c r="E27">
+      <c r="E28">
         <v>60</v>
       </c>
     </row>

--- a/mmo_excel/xlsx/item.xlsx
+++ b/mmo_excel/xlsx/item.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\projects\mmo_demo\mmo_excel\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F62226F-DE93-4164-A153-AABF9A54B905}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5854DF1E-A1DD-4735-84D5-CCEE79CAD3D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -598,8 +598,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="H24" sqref="H24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/mmo_excel/xlsx/item.xlsx
+++ b/mmo_excel/xlsx/item.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24527"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\projects\mmo_demo\mmo_excel\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5854DF1E-A1DD-4735-84D5-CCEE79CAD3D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A069D2BD-95EF-48B4-8570-D3BB36318E96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -59,10 +59,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>类型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>type</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -268,6 +264,18 @@
   </si>
   <si>
     <t>散发着神秘力量的树木，能够治愈伤口</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>类型
+0  金币
+1  武器栏
+2  物抗栏
+3  魔抗栏
+4  加血上限栏
+5 加魔上限栏
+6 快速加血栏
+7  快速加蓝栏</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -599,16 +607,17 @@
   <dimension ref="A1:E28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="29.125" customWidth="1"/>
     <col min="3" max="3" width="41.5" customWidth="1"/>
+    <col min="4" max="4" width="38.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" ht="110.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -619,10 +628,10 @@
         <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>8</v>
+        <v>60</v>
       </c>
       <c r="E1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
@@ -636,10 +645,10 @@
         <v>2</v>
       </c>
       <c r="D2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
@@ -661,19 +670,19 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C4" t="s">
         <v>5</v>
       </c>
       <c r="D4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
@@ -681,10 +690,10 @@
         <v>1001</v>
       </c>
       <c r="B5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" t="s">
         <v>11</v>
-      </c>
-      <c r="C5" t="s">
-        <v>12</v>
       </c>
       <c r="D5">
         <v>0</v>
@@ -698,10 +707,10 @@
         <v>1101</v>
       </c>
       <c r="B6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D6">
         <v>1</v>
@@ -715,10 +724,10 @@
         <v>1102</v>
       </c>
       <c r="B7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D7">
         <v>1</v>
@@ -732,10 +741,10 @@
         <v>1103</v>
       </c>
       <c r="B8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D8">
         <v>1</v>
@@ -749,10 +758,10 @@
         <v>1104</v>
       </c>
       <c r="B9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" t="s">
         <v>18</v>
-      </c>
-      <c r="C9" t="s">
-        <v>19</v>
       </c>
       <c r="D9">
         <v>1</v>
@@ -766,10 +775,10 @@
         <v>1105</v>
       </c>
       <c r="B10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D10">
         <v>1</v>
@@ -783,10 +792,10 @@
         <v>1106</v>
       </c>
       <c r="B11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D11">
         <v>1</v>
@@ -800,10 +809,10 @@
         <v>1107</v>
       </c>
       <c r="B12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" t="s">
         <v>24</v>
-      </c>
-      <c r="C12" t="s">
-        <v>25</v>
       </c>
       <c r="D12">
         <v>1</v>
@@ -817,10 +826,10 @@
         <v>1201</v>
       </c>
       <c r="B13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" t="s">
         <v>26</v>
-      </c>
-      <c r="C13" t="s">
-        <v>27</v>
       </c>
       <c r="D13">
         <v>2</v>
@@ -834,10 +843,10 @@
         <v>1202</v>
       </c>
       <c r="B14" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C14" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D14">
         <v>2</v>
@@ -851,10 +860,10 @@
         <v>1203</v>
       </c>
       <c r="B15" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C15" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D15">
         <v>2</v>
@@ -868,10 +877,10 @@
         <v>1204</v>
       </c>
       <c r="B16" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C16" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D16">
         <v>2</v>
@@ -885,10 +894,10 @@
         <v>1301</v>
       </c>
       <c r="B17" t="s">
+        <v>34</v>
+      </c>
+      <c r="C17" t="s">
         <v>35</v>
-      </c>
-      <c r="C17" t="s">
-        <v>36</v>
       </c>
       <c r="D17">
         <v>3</v>
@@ -902,10 +911,10 @@
         <v>1302</v>
       </c>
       <c r="B18" t="s">
+        <v>36</v>
+      </c>
+      <c r="C18" t="s">
         <v>37</v>
-      </c>
-      <c r="C18" t="s">
-        <v>38</v>
       </c>
       <c r="D18">
         <v>3</v>
@@ -919,10 +928,10 @@
         <v>1303</v>
       </c>
       <c r="B19" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C19" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D19">
         <v>3</v>
@@ -936,10 +945,10 @@
         <v>1401</v>
       </c>
       <c r="B20" t="s">
+        <v>39</v>
+      </c>
+      <c r="C20" t="s">
         <v>40</v>
-      </c>
-      <c r="C20" t="s">
-        <v>41</v>
       </c>
       <c r="D20">
         <v>4</v>
@@ -953,10 +962,10 @@
         <v>1402</v>
       </c>
       <c r="B21" t="s">
+        <v>41</v>
+      </c>
+      <c r="C21" t="s">
         <v>42</v>
-      </c>
-      <c r="C21" t="s">
-        <v>43</v>
       </c>
       <c r="D21">
         <v>4</v>
@@ -970,10 +979,10 @@
         <v>1403</v>
       </c>
       <c r="B22" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C22" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D22">
         <v>4</v>
@@ -987,10 +996,10 @@
         <v>1501</v>
       </c>
       <c r="B23" t="s">
+        <v>46</v>
+      </c>
+      <c r="C23" t="s">
         <v>47</v>
-      </c>
-      <c r="C23" t="s">
-        <v>48</v>
       </c>
       <c r="D23">
         <v>5</v>
@@ -1004,10 +1013,10 @@
         <v>1502</v>
       </c>
       <c r="B24" t="s">
+        <v>48</v>
+      </c>
+      <c r="C24" t="s">
         <v>49</v>
-      </c>
-      <c r="C24" t="s">
-        <v>50</v>
       </c>
       <c r="D24">
         <v>5</v>
@@ -1021,10 +1030,10 @@
         <v>1503</v>
       </c>
       <c r="B25" t="s">
+        <v>50</v>
+      </c>
+      <c r="C25" t="s">
         <v>51</v>
-      </c>
-      <c r="C25" t="s">
-        <v>52</v>
       </c>
       <c r="D25">
         <v>5</v>
@@ -1038,10 +1047,10 @@
         <v>1601</v>
       </c>
       <c r="B26" t="s">
+        <v>52</v>
+      </c>
+      <c r="C26" t="s">
         <v>53</v>
-      </c>
-      <c r="C26" t="s">
-        <v>54</v>
       </c>
       <c r="D26">
         <v>6</v>
@@ -1055,10 +1064,10 @@
         <v>1602</v>
       </c>
       <c r="B27" t="s">
+        <v>58</v>
+      </c>
+      <c r="C27" t="s">
         <v>59</v>
-      </c>
-      <c r="C27" t="s">
-        <v>60</v>
       </c>
       <c r="D27">
         <v>6</v>
@@ -1072,10 +1081,10 @@
         <v>1701</v>
       </c>
       <c r="B28" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C28" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D28">
         <v>7</v>

--- a/mmo_excel/xlsx/item.xlsx
+++ b/mmo_excel/xlsx/item.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24701"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\projects\mmo_demo\mmo_excel\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A069D2BD-95EF-48B4-8570-D3BB36318E96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B390869-E6B9-4287-BE8A-C7876BF2ACFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="810" yWindow="1545" windowWidth="21600" windowHeight="13125" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -606,8 +606,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/mmo_excel/xlsx/item.xlsx
+++ b/mmo_excel/xlsx/item.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\projects\mmo_demo\mmo_excel\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B390869-E6B9-4287-BE8A-C7876BF2ACFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D935D5F5-6EC7-4050-809E-60E71C559B3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="810" yWindow="1545" windowWidth="21600" windowHeight="13125" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-1320" yWindow="3375" windowWidth="21600" windowHeight="13125" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -606,8 +606,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
